--- a/DDGwork.xlsx
+++ b/DDGwork.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Total without age</t>
+  </si>
+  <si>
+    <t>"Fake" data set same size as real, but with random purtubations</t>
+  </si>
+  <si>
+    <t>Focus on LHJ donwload of local system --&gt; support with extraset Shiny server</t>
+  </si>
+  <si>
+    <t>Other Options:</t>
   </si>
 </sst>
 </file>
@@ -684,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,8 +708,8 @@
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -722,8 +731,11 @@
       <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -733,8 +745,11 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
@@ -754,8 +769,11 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
@@ -776,7 +794,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
@@ -797,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
@@ -818,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -829,7 +847,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
@@ -848,7 +866,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>0</v>
       </c>
@@ -871,7 +889,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -882,7 +900,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
@@ -909,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -920,7 +938,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>3</v>
       </c>
@@ -947,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -958,7 +976,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>

--- a/DDGwork.xlsx
+++ b/DDGwork.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -51,9 +51,6 @@
     <t>&lt;11</t>
   </si>
   <si>
-    <t>depends</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -79,6 +76,30 @@
   </si>
   <si>
     <t>Other Options:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>single year</t>
+  </si>
+  <si>
+    <t>&gt;10 year range</t>
+  </si>
+  <si>
+    <t>remove sex strat from infant/neonatal deahts</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Supress N &lt; 12</t>
+  </si>
+  <si>
+    <t>Supress N &lt;12; no sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No sex; </t>
   </si>
 </sst>
 </file>
@@ -102,12 +123,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -270,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -327,12 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -357,13 +390,168 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -693,373 +881,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B3:R23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="H6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="M3" t="s">
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16">
+        <v>7</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="14">
+        <v>7</v>
+      </c>
+      <c r="N8" s="15">
+        <v>7</v>
+      </c>
+      <c r="O8" s="16">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="32">
+        <v>5</v>
+      </c>
+      <c r="H9" s="33">
+        <v>5</v>
+      </c>
+      <c r="I9" s="34">
+        <v>5</v>
+      </c>
+      <c r="J9" s="15">
+        <v>5</v>
+      </c>
+      <c r="K9" s="15">
+        <v>5</v>
+      </c>
+      <c r="L9" s="16">
+        <v>5</v>
+      </c>
+      <c r="M9" s="32">
+        <v>5</v>
+      </c>
+      <c r="N9" s="33">
+        <v>5</v>
+      </c>
+      <c r="O9" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14">
-        <v>7</v>
-      </c>
-      <c r="F4" s="15">
-        <v>7</v>
-      </c>
-      <c r="G4" s="16">
-        <v>7</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
-        <v>5</v>
-      </c>
-      <c r="F5" s="20">
-        <v>5</v>
-      </c>
-      <c r="G5" s="21">
-        <v>5</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="D10" s="19">
+        <v>5</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5</v>
+      </c>
+      <c r="F10" s="21">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5</v>
+      </c>
+      <c r="H10" s="20">
+        <v>5</v>
+      </c>
+      <c r="I10" s="21">
+        <v>5</v>
+      </c>
+      <c r="J10" s="20">
+        <v>5</v>
+      </c>
+      <c r="K10" s="20">
+        <v>5</v>
+      </c>
+      <c r="L10" s="21">
+        <v>5</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20">
-        <v>5</v>
-      </c>
-      <c r="I6" s="20">
-        <v>5</v>
-      </c>
-      <c r="J6" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20">
-        <v>4</v>
-      </c>
-      <c r="I7" s="20">
-        <v>4</v>
-      </c>
-      <c r="J7" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="D13" s="14">
         <v>0</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14">
         <v>0</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15">
         <v>0</v>
       </c>
-      <c r="C10" s="18">
-        <v>5</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20">
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20">
         <v>-5</v>
       </c>
-      <c r="G10" s="21">
+      <c r="F14" s="21">
         <v>-5</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20">
+      <c r="G14" s="19"/>
+      <c r="H14" s="20">
         <v>-5</v>
       </c>
-      <c r="J10" s="21">
+      <c r="I14" s="21">
         <v>-5</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14">
-        <v>7</v>
-      </c>
-      <c r="F14" s="15">
-        <v>7</v>
-      </c>
-      <c r="G14" s="16">
-        <v>7</v>
-      </c>
-      <c r="H14" s="15">
-        <v>7</v>
-      </c>
-      <c r="I14" s="15">
-        <v>7</v>
-      </c>
-      <c r="J14" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="20"/>
+      <c r="K14" s="20">
+        <v>-5</v>
+      </c>
+      <c r="L14" s="21">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20">
+        <v>-5</v>
+      </c>
+      <c r="O14" s="21">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="35">
+        <v>2</v>
+      </c>
+      <c r="H18" s="36">
+        <v>2</v>
+      </c>
+      <c r="I18" s="37">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11">
+        <v>2</v>
+      </c>
+      <c r="M18" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="38">
+        <v>7</v>
+      </c>
+      <c r="E19" s="39">
+        <v>7</v>
+      </c>
+      <c r="F19" s="40">
+        <v>7</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="44">
+        <v>7</v>
+      </c>
+      <c r="N19" s="45">
+        <v>7</v>
+      </c>
+      <c r="O19" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24">
+        <f>SUM(D8:D17)</f>
+        <v>13</v>
+      </c>
+      <c r="E22" s="25">
+        <f>SUM(E8:E17)</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="26">
+        <f>SUM(F8:F17)</f>
+        <v>8</v>
+      </c>
+      <c r="G22" s="24">
+        <f>SUM(G8:G17)</f>
+        <v>11</v>
+      </c>
+      <c r="H22" s="25">
+        <f>SUM(H8:H17)</f>
+        <v>6</v>
+      </c>
+      <c r="I22" s="26">
+        <f>SUM(I8:I17)</f>
+        <v>6</v>
+      </c>
+      <c r="J22" s="25">
+        <f>SUM(J8:J17)</f>
+        <v>10</v>
+      </c>
+      <c r="K22" s="25">
+        <f>SUM(K8:K17)</f>
+        <v>5</v>
+      </c>
+      <c r="L22" s="26">
+        <f>SUM(L8:L17)</f>
+        <v>5</v>
+      </c>
+      <c r="M22" s="24">
+        <f>SUM(M8:M17)</f>
+        <v>12</v>
+      </c>
+      <c r="N22" s="25">
+        <f>SUM(N8:N17)</f>
+        <v>7</v>
+      </c>
+      <c r="O22" s="26">
+        <f>SUM(O8:O17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29">
+        <f>SUM(D8:D20)</f>
+        <v>20</v>
+      </c>
+      <c r="E23" s="30">
+        <f>SUM(E8:E20)</f>
+        <v>15</v>
+      </c>
+      <c r="F23" s="31">
+        <f>SUM(F8:F20)</f>
+        <v>15</v>
+      </c>
+      <c r="G23" s="29">
+        <f>SUM(G8:G20)</f>
+        <v>13</v>
+      </c>
+      <c r="H23" s="30">
+        <f>SUM(H8:H20)</f>
+        <v>8</v>
+      </c>
+      <c r="I23" s="31">
+        <f>SUM(I8:I20)</f>
+        <v>8</v>
+      </c>
+      <c r="J23" s="30">
+        <f>SUM(J8:J20)</f>
+        <v>12</v>
+      </c>
+      <c r="K23" s="30">
+        <f t="shared" ref="K23:L23" si="0">SUM(K8:K20)</f>
+        <v>7</v>
+      </c>
+      <c r="L23" s="31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M23" s="29">
+        <f>SUM(M8:M20)</f>
+        <v>19</v>
+      </c>
+      <c r="N23" s="30">
+        <f>SUM(N8:N20)</f>
         <v>14</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26">
-        <f>SUM(E4:E13)</f>
-        <v>13</v>
-      </c>
-      <c r="F17" s="27">
-        <f t="shared" ref="F17:G17" si="0">SUM(F4:F13)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="28">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H17" s="27">
-        <f>SUM(H4:H13)</f>
-        <v>10</v>
-      </c>
-      <c r="I17" s="27">
-        <f t="shared" ref="I17:J17" si="1">SUM(I4:I13)</f>
-        <v>5</v>
-      </c>
-      <c r="J17" s="28">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31">
-        <f>SUM(E4:E15)</f>
-        <v>20</v>
-      </c>
-      <c r="F18" s="32">
-        <f t="shared" ref="F18:G18" si="2">SUM(F4:F15)</f>
-        <v>15</v>
-      </c>
-      <c r="G18" s="33">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H18" s="32">
-        <f>SUM(H4:H15)</f>
-        <v>17</v>
-      </c>
-      <c r="I18" s="32">
-        <f t="shared" ref="I18:J18" si="3">SUM(I4:I15)</f>
-        <v>12</v>
-      </c>
-      <c r="J18" s="33">
-        <f t="shared" si="3"/>
-        <v>12</v>
+      <c r="O23" s="31">
+        <f>SUM(O8:O20)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E17:J18">
+  <conditionalFormatting sqref="D22:O23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>11</formula>
+      <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E17:G17 H17" formulaRange="1"/>
-    <ignoredError sqref="C6" twoDigitTextYear="1"/>
+    <ignoredError sqref="G22:I22 J22" formulaRange="1"/>
+    <ignoredError sqref="C9" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/DDGwork.xlsx
+++ b/DDGwork.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -90,9 +90,6 @@
     <t>remove sex strat from infant/neonatal deahts</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>Supress N &lt; 12</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t xml:space="preserve">No sex; </t>
+  </si>
+  <si>
+    <t>No Supression</t>
+  </si>
+  <si>
+    <t>no sex age &lt; 1</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -436,122 +439,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -884,7 +780,7 @@
   <dimension ref="B3:R23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,17 +796,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1404,51 +1305,51 @@
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="24">
-        <f>SUM(D8:D17)</f>
+        <f t="shared" ref="D22:O22" si="0">SUM(D8:D17)</f>
         <v>13</v>
       </c>
       <c r="E22" s="25">
-        <f>SUM(E8:E17)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F22" s="26">
-        <f>SUM(F8:F17)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G22" s="24">
-        <f>SUM(G8:G17)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H22" s="25">
-        <f>SUM(H8:H17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I22" s="26">
-        <f>SUM(I8:I17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J22" s="25">
-        <f>SUM(J8:J17)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K22" s="25">
-        <f>SUM(K8:K17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L22" s="26">
-        <f>SUM(L8:L17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M22" s="24">
-        <f>SUM(M8:M17)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N22" s="25">
-        <f>SUM(N8:N17)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="O22" s="26">
-        <f>SUM(O8:O17)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -1458,39 +1359,39 @@
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="29">
-        <f>SUM(D8:D20)</f>
+        <f t="shared" ref="D23:J23" si="1">SUM(D8:D20)</f>
         <v>20</v>
       </c>
       <c r="E23" s="30">
-        <f>SUM(E8:E20)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F23" s="31">
-        <f>SUM(F8:F20)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G23" s="29">
-        <f>SUM(G8:G20)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H23" s="30">
-        <f>SUM(H8:H20)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I23" s="31">
-        <f>SUM(I8:I20)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J23" s="30">
-        <f>SUM(J8:J20)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K23" s="30">
-        <f t="shared" ref="K23:L23" si="0">SUM(K8:K20)</f>
+        <f t="shared" ref="K23:L23" si="2">SUM(K8:K20)</f>
         <v>7</v>
       </c>
       <c r="L23" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M23" s="29">
@@ -1526,7 +1427,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
